--- a/PacBioBarcodedPrimers.xlsx
+++ b/PacBioBarcodedPrimers.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10410"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10709"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/matthewcollin/Desktop/Pac Bio Project/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jamesburnette/Sites/barcodefilter/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A576C3C0-7393-7844-8C17-49DC025DBA36}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BD1FA88-F63E-9A4D-91BF-6B198A893217}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16380" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9840" yWindow="460" windowWidth="28800" windowHeight="16380" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="150000"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="251">
   <si>
     <t>ACACATATCGCACTACCAGGAAACAGCTATGAC</t>
   </si>
@@ -454,6 +455,333 @@
   </si>
   <si>
     <t>H7</t>
+  </si>
+  <si>
+    <t>Primer</t>
+  </si>
+  <si>
+    <t>Direction</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>Well</t>
+  </si>
+  <si>
+    <t>A2</t>
+  </si>
+  <si>
+    <t>A3</t>
+  </si>
+  <si>
+    <t>A5</t>
+  </si>
+  <si>
+    <t>A6</t>
+  </si>
+  <si>
+    <t>A8</t>
+  </si>
+  <si>
+    <t>A9</t>
+  </si>
+  <si>
+    <t>A10</t>
+  </si>
+  <si>
+    <t>A11</t>
+  </si>
+  <si>
+    <t>TCAGACGATGCGTCAT</t>
+  </si>
+  <si>
+    <t>CTATACATGACTCTGC</t>
+  </si>
+  <si>
+    <t>TACTAGAGTAGCACTC</t>
+  </si>
+  <si>
+    <t>TGTGTATCAGTACATG</t>
+  </si>
+  <si>
+    <t>ACACGCATGACACACT</t>
+  </si>
+  <si>
+    <t>GATCTCTACTATATGC</t>
+  </si>
+  <si>
+    <t>ACAGTCTATACTGCTG</t>
+  </si>
+  <si>
+    <t>ATGATGTGCTACATCT</t>
+  </si>
+  <si>
+    <t>CTGCGTGCTCTACGAC</t>
+  </si>
+  <si>
+    <t>GCGCGATACGATGACT</t>
+  </si>
+  <si>
+    <t>CGCGCTCAGCTGATCG</t>
+  </si>
+  <si>
+    <t>GCGCACGCACTACAGA</t>
+  </si>
+  <si>
+    <t>ACACTGACGTCGCGAC</t>
+  </si>
+  <si>
+    <t>CGTCTATATACGTATA</t>
+  </si>
+  <si>
+    <t>ATAGAGACTCAGAGCT</t>
+  </si>
+  <si>
+    <t>TAGATGCGAGAGTAGA</t>
+  </si>
+  <si>
+    <t>CATAGCGACTATCGTG</t>
+  </si>
+  <si>
+    <t>CATCACTACGCTAGAT</t>
+  </si>
+  <si>
+    <t>CGCATCTGTGCATGCA</t>
+  </si>
+  <si>
+    <t>TATGTGATCGTCTCTC</t>
+  </si>
+  <si>
+    <t>GTACACGCTGTGACTA</t>
+  </si>
+  <si>
+    <t>CGTGTCGCGCATATCT</t>
+  </si>
+  <si>
+    <t>ATATCAGTCATGCATA</t>
+  </si>
+  <si>
+    <t>GAGATCGACAGTCTCG</t>
+  </si>
+  <si>
+    <t>CACGCACACACGCGCG</t>
+  </si>
+  <si>
+    <t>CGAGCACGCGCGTGTG</t>
+  </si>
+  <si>
+    <t>GTAGTCTCGCACAGAT</t>
+  </si>
+  <si>
+    <t>GAGACTCTGTGCGCGT</t>
+  </si>
+  <si>
+    <t>GCTCGACTGTGAGAGA</t>
+  </si>
+  <si>
+    <t>AGAGATGTGTGATGAC</t>
+  </si>
+  <si>
+    <t>TACGACTACATATCAG</t>
+  </si>
+  <si>
+    <t>TATCTCTGTAGAGTCT</t>
+  </si>
+  <si>
+    <t>AGAGAGAGACATGCGC</t>
+  </si>
+  <si>
+    <t>ACTCTCGCTCTGTAGA</t>
+  </si>
+  <si>
+    <t>TCTATGTCTCAGTAGT</t>
+  </si>
+  <si>
+    <t>GCGTATATCTCATGCG</t>
+  </si>
+  <si>
+    <t>ACACATATCGCACTAC</t>
+  </si>
+  <si>
+    <t>GAGAGCGCTGACTCTG</t>
+  </si>
+  <si>
+    <t>ACACGTGTGCTCTCTC</t>
+  </si>
+  <si>
+    <t>CGAGTGTGTCTATACT</t>
+  </si>
+  <si>
+    <t>GTGATGCATACGTACA</t>
+  </si>
+  <si>
+    <t>CTCGTGACGCTGACTG</t>
+  </si>
+  <si>
+    <t>TCTGTATCTCTATGTG</t>
+  </si>
+  <si>
+    <t>TGTGTCTCTGAGAGTA</t>
+  </si>
+  <si>
+    <t>TAGATCTATCATCGTC</t>
+  </si>
+  <si>
+    <t>ACATATACAGCGTATC</t>
+  </si>
+  <si>
+    <t>CGCTCATATGAGCTCA</t>
+  </si>
+  <si>
+    <t>GTCGCGCATAGAGCGC</t>
+  </si>
+  <si>
+    <t>TACACACTATGTGCGT</t>
+  </si>
+  <si>
+    <t>ATACGCGCGCGCATGC</t>
+  </si>
+  <si>
+    <t>GTGCGCGAGAGTATAC</t>
+  </si>
+  <si>
+    <t>GCGCTAGTGTGTACGA</t>
+  </si>
+  <si>
+    <t>GAGACACGTCGCACAC</t>
+  </si>
+  <si>
+    <t>ACAGAGTGTGCAGATA</t>
+  </si>
+  <si>
+    <t>TAGAGCGTCTCTCGTA</t>
+  </si>
+  <si>
+    <t>TCTATGAGCACTCTCG</t>
+  </si>
+  <si>
+    <t>ATGTGTATATAGATAT</t>
+  </si>
+  <si>
+    <t>CTCACACTCTCTCACA</t>
+  </si>
+  <si>
+    <t>TCAGCGCACTGTGCTG</t>
+  </si>
+  <si>
+    <t>GTGCATACATACATAT</t>
+  </si>
+  <si>
+    <t>CAGAGAGATATCTCTG</t>
+  </si>
+  <si>
+    <t>D1</t>
+  </si>
+  <si>
+    <t>D2</t>
+  </si>
+  <si>
+    <t>D3</t>
+  </si>
+  <si>
+    <t>D4</t>
+  </si>
+  <si>
+    <t>D5</t>
+  </si>
+  <si>
+    <t>D6</t>
+  </si>
+  <si>
+    <t>D7</t>
+  </si>
+  <si>
+    <t>D8</t>
+  </si>
+  <si>
+    <t>D9</t>
+  </si>
+  <si>
+    <t>D10</t>
+  </si>
+  <si>
+    <t>D11</t>
+  </si>
+  <si>
+    <t>G1</t>
+  </si>
+  <si>
+    <t>G2</t>
+  </si>
+  <si>
+    <t>G3</t>
+  </si>
+  <si>
+    <t>G4</t>
+  </si>
+  <si>
+    <t>G5</t>
+  </si>
+  <si>
+    <t>G6</t>
+  </si>
+  <si>
+    <t>G7</t>
+  </si>
+  <si>
+    <t>G8</t>
+  </si>
+  <si>
+    <t>G9</t>
+  </si>
+  <si>
+    <t>G10</t>
+  </si>
+  <si>
+    <t>G11</t>
+  </si>
+  <si>
+    <t>B1</t>
+  </si>
+  <si>
+    <t>C1</t>
+  </si>
+  <si>
+    <t>E1</t>
+  </si>
+  <si>
+    <t>F1</t>
+  </si>
+  <si>
+    <t>B4</t>
+  </si>
+  <si>
+    <t>C4</t>
+  </si>
+  <si>
+    <t>E4</t>
+  </si>
+  <si>
+    <t>F4</t>
+  </si>
+  <si>
+    <t>B7</t>
+  </si>
+  <si>
+    <t>C7</t>
+  </si>
+  <si>
+    <t>E7</t>
+  </si>
+  <si>
+    <t>F7</t>
+  </si>
+  <si>
+    <t>I7</t>
   </si>
 </sst>
 </file>
@@ -773,8 +1101,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S63"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="M44" sqref="M44"/>
+    <sheetView showRuler="0" topLeftCell="A24" workbookViewId="0">
+      <selection sqref="A1:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1511,4 +1839,891 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80586A30-0685-5249-B29F-10CE5C203C70}">
+  <dimension ref="A1:D62"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="D55" sqref="D55"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="20.5" customWidth="1"/>
+    <col min="2" max="2" width="27.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B1" t="s">
+        <v>142</v>
+      </c>
+      <c r="C1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" t="s">
+        <v>155</v>
+      </c>
+      <c r="C2" t="s">
+        <v>144</v>
+      </c>
+      <c r="D2" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" t="s">
+        <v>156</v>
+      </c>
+      <c r="C3" t="s">
+        <v>144</v>
+      </c>
+      <c r="D3" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4" t="s">
+        <v>157</v>
+      </c>
+      <c r="C4" t="s">
+        <v>144</v>
+      </c>
+      <c r="D4" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B5" t="s">
+        <v>158</v>
+      </c>
+      <c r="C5" t="s">
+        <v>144</v>
+      </c>
+      <c r="D5" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B6" t="s">
+        <v>159</v>
+      </c>
+      <c r="C6" t="s">
+        <v>144</v>
+      </c>
+      <c r="D6" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>35</v>
+      </c>
+      <c r="B7" t="s">
+        <v>160</v>
+      </c>
+      <c r="C7" t="s">
+        <v>144</v>
+      </c>
+      <c r="D7" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>37</v>
+      </c>
+      <c r="B8" t="s">
+        <v>161</v>
+      </c>
+      <c r="C8" t="s">
+        <v>144</v>
+      </c>
+      <c r="D8" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>39</v>
+      </c>
+      <c r="B9" t="s">
+        <v>162</v>
+      </c>
+      <c r="C9" t="s">
+        <v>144</v>
+      </c>
+      <c r="D9" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>41</v>
+      </c>
+      <c r="B10" t="s">
+        <v>163</v>
+      </c>
+      <c r="C10" t="s">
+        <v>144</v>
+      </c>
+      <c r="D10" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>43</v>
+      </c>
+      <c r="B11" t="s">
+        <v>164</v>
+      </c>
+      <c r="C11" t="s">
+        <v>144</v>
+      </c>
+      <c r="D11" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>45</v>
+      </c>
+      <c r="B12" t="s">
+        <v>165</v>
+      </c>
+      <c r="C12" t="s">
+        <v>144</v>
+      </c>
+      <c r="D12" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>47</v>
+      </c>
+      <c r="B13" t="s">
+        <v>166</v>
+      </c>
+      <c r="C13" t="s">
+        <v>144</v>
+      </c>
+      <c r="D13" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>49</v>
+      </c>
+      <c r="B14" t="s">
+        <v>167</v>
+      </c>
+      <c r="C14" t="s">
+        <v>144</v>
+      </c>
+      <c r="D14" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>51</v>
+      </c>
+      <c r="B15" t="s">
+        <v>168</v>
+      </c>
+      <c r="C15" t="s">
+        <v>144</v>
+      </c>
+      <c r="D15" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>53</v>
+      </c>
+      <c r="B16" t="s">
+        <v>169</v>
+      </c>
+      <c r="C16" t="s">
+        <v>144</v>
+      </c>
+      <c r="D16" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>55</v>
+      </c>
+      <c r="B17" t="s">
+        <v>170</v>
+      </c>
+      <c r="C17" t="s">
+        <v>144</v>
+      </c>
+      <c r="D17" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>57</v>
+      </c>
+      <c r="B18" t="s">
+        <v>171</v>
+      </c>
+      <c r="C18" t="s">
+        <v>144</v>
+      </c>
+      <c r="D18" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>59</v>
+      </c>
+      <c r="B19" t="s">
+        <v>172</v>
+      </c>
+      <c r="C19" t="s">
+        <v>144</v>
+      </c>
+      <c r="D19" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>61</v>
+      </c>
+      <c r="B20" t="s">
+        <v>173</v>
+      </c>
+      <c r="C20" t="s">
+        <v>144</v>
+      </c>
+      <c r="D20" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>63</v>
+      </c>
+      <c r="B21" t="s">
+        <v>174</v>
+      </c>
+      <c r="C21" t="s">
+        <v>144</v>
+      </c>
+      <c r="D21" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>65</v>
+      </c>
+      <c r="B22" t="s">
+        <v>175</v>
+      </c>
+      <c r="C22" t="s">
+        <v>144</v>
+      </c>
+      <c r="D22" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>67</v>
+      </c>
+      <c r="B23" t="s">
+        <v>176</v>
+      </c>
+      <c r="C23" t="s">
+        <v>144</v>
+      </c>
+      <c r="D23" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>69</v>
+      </c>
+      <c r="B24" t="s">
+        <v>177</v>
+      </c>
+      <c r="C24" t="s">
+        <v>144</v>
+      </c>
+      <c r="D24" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>71</v>
+      </c>
+      <c r="B25" t="s">
+        <v>178</v>
+      </c>
+      <c r="C25" t="s">
+        <v>144</v>
+      </c>
+      <c r="D25" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>73</v>
+      </c>
+      <c r="B26" t="s">
+        <v>179</v>
+      </c>
+      <c r="C26" t="s">
+        <v>144</v>
+      </c>
+      <c r="D26" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>75</v>
+      </c>
+      <c r="B27" t="s">
+        <v>180</v>
+      </c>
+      <c r="C27" t="s">
+        <v>144</v>
+      </c>
+      <c r="D27" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>77</v>
+      </c>
+      <c r="B28" t="s">
+        <v>181</v>
+      </c>
+      <c r="C28" t="s">
+        <v>144</v>
+      </c>
+      <c r="D28" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>79</v>
+      </c>
+      <c r="B29" t="s">
+        <v>182</v>
+      </c>
+      <c r="C29" t="s">
+        <v>144</v>
+      </c>
+      <c r="D29" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>81</v>
+      </c>
+      <c r="B30" t="s">
+        <v>183</v>
+      </c>
+      <c r="C30" t="s">
+        <v>144</v>
+      </c>
+      <c r="D30" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>83</v>
+      </c>
+      <c r="B31" t="s">
+        <v>184</v>
+      </c>
+      <c r="C31" t="s">
+        <v>144</v>
+      </c>
+      <c r="D31" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>85</v>
+      </c>
+      <c r="B32" t="s">
+        <v>185</v>
+      </c>
+      <c r="C32" t="s">
+        <v>144</v>
+      </c>
+      <c r="D32" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>87</v>
+      </c>
+      <c r="B33" t="s">
+        <v>186</v>
+      </c>
+      <c r="C33" t="s">
+        <v>144</v>
+      </c>
+      <c r="D33" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>89</v>
+      </c>
+      <c r="B34" t="s">
+        <v>187</v>
+      </c>
+      <c r="C34" t="s">
+        <v>144</v>
+      </c>
+      <c r="D34" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>91</v>
+      </c>
+      <c r="B35" t="s">
+        <v>188</v>
+      </c>
+      <c r="C35" t="s">
+        <v>144</v>
+      </c>
+      <c r="D35" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>93</v>
+      </c>
+      <c r="B36" t="s">
+        <v>189</v>
+      </c>
+      <c r="C36" t="s">
+        <v>144</v>
+      </c>
+      <c r="D36" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>95</v>
+      </c>
+      <c r="B37" t="s">
+        <v>190</v>
+      </c>
+      <c r="C37" t="s">
+        <v>144</v>
+      </c>
+      <c r="D37" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>97</v>
+      </c>
+      <c r="B38" t="s">
+        <v>191</v>
+      </c>
+      <c r="C38" t="s">
+        <v>145</v>
+      </c>
+      <c r="D38" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>98</v>
+      </c>
+      <c r="B39" t="s">
+        <v>192</v>
+      </c>
+      <c r="C39" t="s">
+        <v>145</v>
+      </c>
+      <c r="D39" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>99</v>
+      </c>
+      <c r="B40" t="s">
+        <v>193</v>
+      </c>
+      <c r="C40" t="s">
+        <v>145</v>
+      </c>
+      <c r="D40" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>100</v>
+      </c>
+      <c r="B41" t="s">
+        <v>194</v>
+      </c>
+      <c r="C41" t="s">
+        <v>145</v>
+      </c>
+      <c r="D41" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>101</v>
+      </c>
+      <c r="B42" t="s">
+        <v>195</v>
+      </c>
+      <c r="C42" t="s">
+        <v>145</v>
+      </c>
+      <c r="D42" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>102</v>
+      </c>
+      <c r="B43" t="s">
+        <v>196</v>
+      </c>
+      <c r="C43" t="s">
+        <v>145</v>
+      </c>
+      <c r="D43" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>103</v>
+      </c>
+      <c r="B44" t="s">
+        <v>197</v>
+      </c>
+      <c r="C44" t="s">
+        <v>145</v>
+      </c>
+      <c r="D44" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>104</v>
+      </c>
+      <c r="B45" t="s">
+        <v>198</v>
+      </c>
+      <c r="C45" t="s">
+        <v>145</v>
+      </c>
+      <c r="D45" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>105</v>
+      </c>
+      <c r="B46" t="s">
+        <v>199</v>
+      </c>
+      <c r="C46" t="s">
+        <v>145</v>
+      </c>
+      <c r="D46" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>106</v>
+      </c>
+      <c r="B47" t="s">
+        <v>200</v>
+      </c>
+      <c r="C47" t="s">
+        <v>145</v>
+      </c>
+      <c r="D47" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>107</v>
+      </c>
+      <c r="B48" t="s">
+        <v>201</v>
+      </c>
+      <c r="C48" t="s">
+        <v>145</v>
+      </c>
+      <c r="D48" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>108</v>
+      </c>
+      <c r="B49" t="s">
+        <v>202</v>
+      </c>
+      <c r="C49" t="s">
+        <v>145</v>
+      </c>
+      <c r="D49" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>109</v>
+      </c>
+      <c r="B50" t="s">
+        <v>203</v>
+      </c>
+      <c r="C50" t="s">
+        <v>145</v>
+      </c>
+      <c r="D50" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>110</v>
+      </c>
+      <c r="B51" t="s">
+        <v>204</v>
+      </c>
+      <c r="C51" t="s">
+        <v>145</v>
+      </c>
+      <c r="D51" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>111</v>
+      </c>
+      <c r="B52" t="s">
+        <v>205</v>
+      </c>
+      <c r="C52" t="s">
+        <v>145</v>
+      </c>
+      <c r="D52" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>112</v>
+      </c>
+      <c r="B53" t="s">
+        <v>206</v>
+      </c>
+      <c r="C53" t="s">
+        <v>145</v>
+      </c>
+      <c r="D53" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>113</v>
+      </c>
+      <c r="B54" t="s">
+        <v>207</v>
+      </c>
+      <c r="C54" t="s">
+        <v>145</v>
+      </c>
+      <c r="D54" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>114</v>
+      </c>
+      <c r="B55" t="s">
+        <v>208</v>
+      </c>
+      <c r="C55" t="s">
+        <v>145</v>
+      </c>
+      <c r="D55" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>115</v>
+      </c>
+      <c r="B56" t="s">
+        <v>209</v>
+      </c>
+      <c r="C56" t="s">
+        <v>145</v>
+      </c>
+      <c r="D56" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>116</v>
+      </c>
+      <c r="B57" t="s">
+        <v>210</v>
+      </c>
+      <c r="C57" t="s">
+        <v>145</v>
+      </c>
+      <c r="D57" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>117</v>
+      </c>
+      <c r="B58" t="s">
+        <v>211</v>
+      </c>
+      <c r="C58" t="s">
+        <v>145</v>
+      </c>
+      <c r="D58" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>118</v>
+      </c>
+      <c r="B59" t="s">
+        <v>212</v>
+      </c>
+      <c r="C59" t="s">
+        <v>145</v>
+      </c>
+      <c r="D59" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>119</v>
+      </c>
+      <c r="B60" t="s">
+        <v>213</v>
+      </c>
+      <c r="C60" t="s">
+        <v>145</v>
+      </c>
+      <c r="D60" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>120</v>
+      </c>
+      <c r="B61" t="s">
+        <v>214</v>
+      </c>
+      <c r="C61" t="s">
+        <v>145</v>
+      </c>
+      <c r="D61" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>121</v>
+      </c>
+      <c r="B62" t="s">
+        <v>215</v>
+      </c>
+      <c r="C62" t="s">
+        <v>145</v>
+      </c>
+      <c r="D62" t="s">
+        <v>141</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>